--- a/data/02_intermediate/cleaned_Big_Red_songs.xlsx
+++ b/data/02_intermediate/cleaned_Big_Red_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>I tapped on your window on your darkest night The shape of you was jagged and weak There was nowhere for me to stay, but I stayed anyway And if I would've known How many pieces you had crumbled into I might have let them lay Are you really gonna talk about timing in times like these? And let all your damage damage me And carry your baggage up my street And make me your future history, its time You've come a long way, open the blinds, let me see your face You wouldn't be the first renegade to need somebody Is it insensitive for me to say Get your shit together so I can love you? Is it really your anxiety that stops you From giving me everything Or do you just not want to? I tapped on your window on your darkest night The shape of you was jagged and weak There was nowhere for me to stay, but I stayed anyway You fire off missiles cause you hate yourself But do you know you're demolishing me? And then you squeeze my hand as I'm about to leave You might also like Are you really gonna talk about timing in times like these? And let all your damage damage me And carry your baggage up my street And make me your future history, it's time You've come a long way, open the blinds, let me see your face You wouldn't be the first renegade to need somebody Is it insensitive for me to say Get your shit together so I can love you? Is it really your anxiety that stops you From giving me everything Or do you just not want to? And if I would've known How sharp the pieces were you'd crumbled into I mightve let them lay Are you really gonna talk about timing in times like these? And let all your damage damage me And carry your baggage up my street And make me your future history, its time You've come a long way, open the blinds, let me see your face You wouldnt be the first renegade to need somebody To need somebody, to need somebody To need somebody, to need Are you really gonna talk about timing in times like these? And let all your damage damage me And carry your baggage up my street And make me your future history, it's time Is it insensitive for me to say Get your shit together so I can love you? You've come a long way, open the blinds, let me see your face You wouldn't be the first renegade to need somebody Is it really your anxiety that stops you From giving me everything Or do you just not want to?27</t>
+          <t>I tapped on your window on your darkest night The shape of you was jagged and weak There was nowhere for me to stay, but I stayed anyway And if I would've known How many pieces you had crumbled into I might have let them lay Are you really gonna talk about timing in times like these? And let all your damage damage me And carry your baggage up my street And make me your future history, its time You've come a long way, open the blinds, let me see your face You wouldn't be the first renegade to need somebody Is it insensitive for me to say Get your shit together so I can love you? Is it really your anxiety that stops you From giving me everything Or do you just not want to? I tapped on your window on your darkest night The shape of you was jagged and weak There was nowhere for me to stay, but I stayed anyway You fire off missiles cause you hate yourself But do you know you're demolishing me? And then you squeeze my hand as I'm about to leave Are you really gonna talk about timing in times like these? And let all your damage damage me And carry your baggage up my street And make me your future history, it's time You've come a long way, open the blinds, let me see your face You wouldn't be the first renegade to need somebody Is it insensitive for me to say Get your shit together so I can love you? Is it really your anxiety that stops you From giving me everything Or do you just not want to? And if I would've known How sharp the pieces were you'd crumbled into I mightve let them lay Are you really gonna talk about timing in times like these? And let all your damage damage me And carry your baggage up my street And make me your future history, its time You've come a long way, open the blinds, let me see your face You wouldnt be the first renegade to need somebody To need somebody, to need somebody To need somebody, to need Are you really gonna talk about timing in times like these? And let all your damage damage me And carry your baggage up my street And make me your future history, it's time Is it insensitive for me to say Get your shit together so I can love you? You've come a long way, open the blinds, let me see your face You wouldn't be the first renegade to need somebody Is it really your anxiety that stops you From giving me everything Or do you just not want to?27</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The way I woke up was old Was all fucking choke And it ain't easier after a week We're on a long byway standing Well, if you cannot tell I'll tell you right away If I'll stay a spell, or if I cannot stay I am less at ease, not the best at these See the forest trees, call what's these what's these What's these What's these Hey Madeline, thanks For to case out the fog, for Jennifer Seems she needed you badly So, I beg on knees Can we share IDs? Will you always need? We hav common needs We can sure deplte We can be replete Address table needs It is swift your speed You might also like The way I wake up now is a brand new way And, no, it ain't that way like it was before So, I cannot leave Yes, I must here stay 'Cause I know what's good And I'll die that way No, I cannot seem To get a moment's peace If there's a man like me His birch ain't my tree The way I wake up now Is a brand new way It ain't what it was before</t>
+          <t>The way I woke up was old Was all fucking choke And it ain't easier after a week We're on a long byway standing Well, if you cannot tell I'll tell you right away If I'll stay a spell, or if I cannot stay I am less at ease, not the best at these See the forest trees, call what's these what's these What's these What's these Hey Madeline, thanks For to case out the fog, for Jennifer Seems she needed you badly So, I beg on knees Can we share IDs? Will you always need? We hav common needs We can sure deplte We can be replete Address table needs It is swift your speed The way I wake up now is a brand new way And, no, it ain't that way like it was before So, I cannot leave Yes, I must here stay 'Cause I know what's good And I'll die that way No, I cannot seem To get a moment's peace If there's a man like me His birch ain't my tree The way I wake up now Is a brand new way It ain't what it was before</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Out in the loading bay light Watching the fog recede Divided the flame you slowly gave to me Sign of relief in my mind But I only caught you the one time Later I'd watch you and wonder what it was like How do you bear the full weight? How does the long way feel? Kneading your hand too tight against the wheel? How do you stay in that tower? How do you reckon your own power? How does the wheel not turn hour on hour on hour? I was trying to find my way I was thinking my mind was made But you were making my heart change shape It's all that I could take I was trying to find my way I was thinking my mind was made But you were making my heart change shape It's all that I could take You might also like How do you bear the full weight? How does the long way feel? Kneading your hand too tight against the wheel? How do you stay in that tower? How do you reckon your own power? How does the wheel not turn hour on hour on hour? I was trying to find my way I was thinking my mind was made But you were making my heart change shape It's all that I could take I was trying to find my way I was thinking my mind was made But you were making my heart change shape It's all that I could take, now I was trying to find my way I was thinking my mind was made But you were making my heart change shape It's all that I could take, now I was trying to find my way I was thinking my mind was made But you were making my heart change shape It's all that I could take, now How do you stay in that tower? How does the long way feel? How does the wheel not turn hour on hour on hour? Trying to find my way I was thinking my mind was made All that I, all that I could</t>
+          <t>Out in the loading bay light Watching the fog recede Divided the flame you slowly gave to me Sign of relief in my mind But I only caught you the one time Later I'd watch you and wonder what it was like How do you bear the full weight? How does the long way feel? Kneading your hand too tight against the wheel? How do you stay in that tower? How do you reckon your own power? How does the wheel not turn hour on hour on hour? I was trying to find my way I was thinking my mind was made But you were making my heart change shape It's all that I could take I was trying to find my way I was thinking my mind was made But you were making my heart change shape It's all that I could take How do you bear the full weight? How does the long way feel? Kneading your hand too tight against the wheel? How do you stay in that tower? How do you reckon your own power? How does the wheel not turn hour on hour on hour? I was trying to find my way I was thinking my mind was made But you were making my heart change shape It's all that I could take I was trying to find my way I was thinking my mind was made But you were making my heart change shape It's all that I could take, now I was trying to find my way I was thinking my mind was made But you were making my heart change shape It's all that I could take, now I was trying to find my way I was thinking my mind was made But you were making my heart change shape It's all that I could take, now How do you stay in that tower? How does the long way feel? How does the wheel not turn hour on hour on hour? Trying to find my way I was thinking my mind was made All that I, all that I could</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>How long? is what you asked How long do you think it's gonna last? You at the corner store You were stocking up before the storm Stacked yourself against the odds Talkin' back to an act of God You and your clever mouth You were laughing when the lights went out I recall it all forever How it found us where we lay With our arms around each other In the latter days, in the latter days How high? is what you said How high do you think it's gonna get? You at the water's edge On the jetty when you were a kid Passed around a plastic cup Passed out spinnin' in the house where you grew up You in your childhood bed And the wildest dream you ever had You might also like You recall it all forever How it found you where you lay And you called out for your brother In the latter days I recall it all forever How it found us where we lay With our arms around each other In the latter days How high do you? How high do you? I recall it all forever How we sheltered in our place And we called each other lovers In the latter days I recall it all forever How there was no hiding place So we called each other brothers In the latter days, in the latter days3</t>
+          <t>How long? is what you asked How long do you think it's gonna last? You at the corner store You were stocking up before the storm Stacked yourself against the odds Talkin' back to an act of God You and your clever mouth You were laughing when the lights went out I recall it all forever How it found us where we lay With our arms around each other In the latter days, in the latter days How high? is what you said How high do you think it's gonna get? You at the water's edge On the jetty when you were a kid Passed around a plastic cup Passed out spinnin' in the house where you grew up You in your childhood bed And the wildest dream you ever had You recall it all forever How it found you where you lay And you called out for your brother In the latter days I recall it all forever How it found us where we lay With our arms around each other In the latter days How high do you? How high do you? I recall it all forever How we sheltered in our place And we called each other lovers In the latter days I recall it all forever How there was no hiding place So we called each other brothers In the latter days, in the latter days3</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Well Well Well, there ain't no other other Well, there ain't no other other, Lord There ain't no other other Well, there ain't no other other Well, there ain't no other other Well I better not fuck this up Well I better not fuck this up Ah, long a way Well we better not fuck this up Well we better not fuck this up Ah, leave it 'lone Well it's two lines on 'em And were pairing 'em down the cost Well it's two lines on 'em Well ya better not put up a fuss Well, Im wide awake Whoo You might also like Well you better not fuck this up Well you better not fuck this up While Im away Well Well, there ain't no other other Well, there ain't no other other I 'ould bet a fortune Where they tugging the bed in the foreground There ain't no other other There ain't no other There ain't no other Have we been here before? Where they tugging the bed in the foreground Well Im on my big bean field in the palm of your hand And the palms are decimation where the glass glaze lay dead Well there's six whole fucking nations and who knows where they lay Well you don't baylta patch that with a one slap slain sleigh When that bread dont even cost no bread on my mast head And that bed ain't even made up and the swing side caped up Well there's Indians in the graveyard and we built on top them Well I wanna comprehend you, but that's hard to give way, ah Do we really know what happened to the clamped winter pass? I would'a bet a coat over highway pass For every lil' young ripple slapped on the back Well I wanna comprehend you, said no overpass The very young thing chad with the sweater back Said he ain't known no love so he just attacks But I known a couple lovers, some were quarterbacks See can't you see hon that there's two a' that Now? Well, there ain't no other other other Well, there ain't no other other Well, there ain't no other other other Well, there ain't no other other For by a still water1</t>
+          <t>Well Well Well, there ain't no other other Well, there ain't no other other, Lord There ain't no other other Well, there ain't no other other Well, there ain't no other other Well I better not fuck this up Well I better not fuck this up Ah, long a way Well we better not fuck this up Well we better not fuck this up Ah, leave it 'lone Well it's two lines on 'em And were pairing 'em down the cost Well it's two lines on 'em Well ya better not put up a fuss Well, Im wide awake Whoo Well you better not fuck this up Well you better not fuck this up While Im away Well Well, there ain't no other other Well, there ain't no other other I 'ould bet a fortune Where they tugging the bed in the foreground There ain't no other other There ain't no other There ain't no other Have we been here before? Where they tugging the bed in the foreground Well Im on my big bean field in the palm of your hand And the palms are decimation where the glass glaze lay dead Well there's six whole fucking nations and who knows where they lay Well you don't baylta patch that with a one slap slain sleigh When that bread dont even cost no bread on my mast head And that bed ain't even made up and the swing side caped up Well there's Indians in the graveyard and we built on top them Well I wanna comprehend you, but that's hard to give way, ah Do we really know what happened to the clamped winter pass? I would'a bet a coat over highway pass For every lil' young ripple slapped on the back Well I wanna comprehend you, said no overpass The very young thing chad with the sweater back Said he ain't known no love so he just attacks But I known a couple lovers, some were quarterbacks See can't you see hon that there's two a' that Now? Well, there ain't no other other other Well, there ain't no other other Well, there ain't no other other other Well, there ain't no other other For by a still water1</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>There the bell tolls noon on 12th and Vine And I still need this overtime 'Cause I'm over myself I'm over the hill I'm Over-the-Rhine For the millionth time For the millionth time I park at this spot and stare at the water Try to remember I'm somebody's father Dawn commute across Covington Bridge Get lost in my head, just looking at it Now I'm looking at you Through the hole in my sheet And I still need this overtime 'Cause I'm over myself I'm over the hill I'm Over-the-Rhin For the millionth time For the millionth tim I'm overspent Overworked Overlooked I'm Over-the-Rhine For the millionth time You might also like Cut through Ault Park 'cause it's safe now I stalk the streets in my nightgown The Ghost of Cincinnati slinks past I smell your coffee, can you taste that? My lip on your cup won't even feel real I'm rushing there, all the way there 'Cause I'm over myself Over the hill I'm Over-the-Rhine For the millionth time For the millionth time I'm overspent Overworked Overlooked I'm Over-the-Rhine For the millionth time I feel over my head Over the hill I'm over myself I'm Over-the-Rhine For the millionth time Stalk the spring grove Rot in my old clothes Pardon Pete Rose And wonder why the evil grows Now I'm in the big time? Not a suicide I'd stalk the streets And haunt you from the northside I pace the hedge row Dodge the low blows Play the Fountain Square And wonder where my cousins go I haunt the northside Stop the traffic lights Cycle up Price Hill And stare up at the Pepsi sign I'm overextended I'm over it all I'm Over-the-Rhine For the millionth time I'm overextended I'm over it all I'm Over-the-Rhine For the millionth time For the millionth time1</t>
+          <t>There the bell tolls noon on 12th and Vine And I still need this overtime 'Cause I'm over myself I'm over the hill I'm Over-the-Rhine For the millionth time For the millionth time I park at this spot and stare at the water Try to remember I'm somebody's father Dawn commute across Covington Bridge Get lost in my head, just looking at it Now I'm looking at you Through the hole in my sheet And I still need this overtime 'Cause I'm over myself I'm over the hill I'm Over-the-Rhin For the millionth time For the millionth tim I'm overspent Overworked Overlooked I'm Over-the-Rhine For the millionth time Cut through Ault Park 'cause it's safe now I stalk the streets in my nightgown The Ghost of Cincinnati slinks past I smell your coffee, can you taste that? My lip on your cup won't even feel real I'm rushing there, all the way there 'Cause I'm over myself Over the hill I'm Over-the-Rhine For the millionth time For the millionth time I'm overspent Overworked Overlooked I'm Over-the-Rhine For the millionth time I feel over my head Over the hill I'm over myself I'm Over-the-Rhine For the millionth time Stalk the spring grove Rot in my old clothes Pardon Pete Rose And wonder why the evil grows Now I'm in the big time? Not a suicide I'd stalk the streets And haunt you from the northside I pace the hedge row Dodge the low blows Play the Fountain Square And wonder where my cousins go I haunt the northside Stop the traffic lights Cycle up Price Hill And stare up at the Pepsi sign I'm overextended I'm over it all I'm Over-the-Rhine For the millionth time I'm overextended I'm over it all I'm Over-the-Rhine For the millionth time For the millionth time1</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Now, look at that road Look at that climb When it's throwing in a nickel or get out a dime Too patterned, too close Too flattered, too broke Now look at you go Took the morning to float Took the morning to find I got a vision of a mission but an awkward vibe Too livid, too scared Too loving, too closed Now look at you know When the cause is dead on arrival And you coulda, shoulda, woulda for free Now look at your post script, every minute It's a very slow thing to have glean, now So maybe you know Or maybe you don't It isnt time for a fitting of a passing cloak Too forward, too fine Too patient, too wise Now look at you shine You might also like Took the matter to house Took the matter to mouth With the feeling that I'm fishing in a harbor now Too clever, too kind Too patterned to hide Now, look at that smile So when the cause ain't dead on arrival And you coulda, shoulda, woulda for free Do not hang your cause on revival 'Cause now looking is bringing you grief So when the cause is dead on arrival And you coulda, shoulda, woulda for free I wouldnt have forced it on the minute Well, it's a very hard thing to have grief Ah give it a minute We're dancing in it3</t>
+          <t>Now, look at that road Look at that climb When it's throwing in a nickel or get out a dime Too patterned, too close Too flattered, too broke Now look at you go Took the morning to float Took the morning to find I got a vision of a mission but an awkward vibe Too livid, too scared Too loving, too closed Now look at you know When the cause is dead on arrival And you coulda, shoulda, woulda for free Now look at your post script, every minute It's a very slow thing to have glean, now So maybe you know Or maybe you don't It isnt time for a fitting of a passing cloak Too forward, too fine Too patient, too wise Now look at you shine Took the matter to house Took the matter to mouth With the feeling that I'm fishing in a harbor now Too clever, too kind Too patterned to hide Now, look at that smile So when the cause ain't dead on arrival And you coulda, shoulda, woulda for free Do not hang your cause on revival 'Cause now looking is bringing you grief So when the cause is dead on arrival And you coulda, shoulda, woulda for free I wouldnt have forced it on the minute Well, it's a very hard thing to have grief Ah give it a minute We're dancing in it3</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>I was gonna give you all of my time More time More time I was gonna go and get you more time More time More time I was gonna give you more and more time I ain't lying I was gonna give you loads of more time My time Its my time How am I gonna get you out of my mind? More time More time How am I gonna get you out of my mind? More time More time I was gonna give us more and more time I ain't lying I ain't lying You might also likeI was gonna get you more and more time I ain't lying I ain't lying Every bit assaulted, but lauded, and part of the profits On account of the coffin Dont call me a maudlin Tongue knotted often Do you remember when we went and took apart your closet? Took apart your closet More time Then I was gonna go and get you more time More time More time More time More time My time More time More time Our time I was gonna put it in my pocket For every drying socket But hocked it when I marked it When you're alone I gave you all of my time But you really want But you really want But you really want More time More time But you really want More More space I can't But I can't I can't But I can't But I can't But I can't But I can't But I can't But I cant But I cant But I cant But I cant But I cant1</t>
+          <t>I was gonna give you all of my time More time More time I was gonna go and get you more time More time More time I was gonna give you more and more time I ain't lying I was gonna give you loads of more time My time Its my time How am I gonna get you out of my mind? More time More time How am I gonna get you out of my mind? More time More time I was gonna give us more and more time I ain't lying I ain't lying I was gonna get you more and more time I ain't lying I ain't lying Every bit assaulted, but lauded, and part of the profits On account of the coffin Dont call me a maudlin Tongue knotted often Do you remember when we went and took apart your closet? Took apart your closet More time Then I was gonna go and get you more time More time More time More time More time My time More time More time Our time I was gonna put it in my pocket For every drying socket But hocked it when I marked it When you're alone I gave you all of my time But you really want But you really want But you really want More time More time But you really want More More space I can't But I can't I can't But I can't But I can't But I can't But I can't But I can't But I cant But I cant But I cant But I cant But I cant1</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Holy torch my perdition How important you will be Why dont you lay it down right beside me Won't you lay it all by me I am not an apparition But Ill haunt you You'll see Clad in ballads, wine and orchids 'Cause I know the kind you seek You used to lay down all around me You used to lay it all by me No it's not just adulation I will hold you for me Cut the grass, tend the flowers Downing bottles by the crease Light a smoke up in the sun room And pretend Im my tree You might also like Prove it not Rock of ages In a row Their lies to me Winter costs you peace of mind now Winter cost your valentine Why won't you come back on the runner Won't you come right backside I'll be singing for your health I'll be righteous youll see1</t>
+          <t>Holy torch my perdition How important you will be Why dont you lay it down right beside me Won't you lay it all by me I am not an apparition But Ill haunt you You'll see Clad in ballads, wine and orchids 'Cause I know the kind you seek You used to lay down all around me You used to lay it all by me No it's not just adulation I will hold you for me Cut the grass, tend the flowers Downing bottles by the crease Light a smoke up in the sun room And pretend Im my tree Prove it not Rock of ages In a row Their lies to me Winter costs you peace of mind now Winter cost your valentine Why won't you come back on the runner Won't you come right backside I'll be singing for your health I'll be righteous youll see1</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>What you shoulda been What you woulda been But there ain't no problem now What's your middle name? Are you often blamed? Do you care about the cost? Where's the middle again? Can I get back there? Well I won't let them talk Well it's at it again And it heads to its home On the north end of redded woe Well I won't be ready to go I'll deny A little bit older now Out in the wilderness With some valedictorian You had wagered up your torch And then you lost your paraffin Off the dead stump up the trees Oh, your head, it split the crease And the ghosts you may never know You will never mend You might also like I will never end And I went off then To the meadowlands Where yer momma can't That's a boundary pass on it What you woulda been What you should been died Well I'm more than that Well I'm more than that Well I'm more than that Well I'm more Well I'm more than that Well I'm more than that Well I'm more than that Well I'm more Well I'm more than that Well I'm more than that Well I'm more than that Well I'm more Well I'm more than that Well I'm more than that Well I'm more than that Well I'm more Here we go What's that supposed to be mean? It is over me All before eleven-thirty And by noon I'll be Dreading everything I won't belabor points but I will hit you in the head I won't belabor points but I will hit it on the head I won't belabor points but I will hit you on the head I won't belabor points but I will hit it on the head1</t>
+          <t>What you shoulda been What you woulda been But there ain't no problem now What's your middle name? Are you often blamed? Do you care about the cost? Where's the middle again? Can I get back there? Well I won't let them talk Well it's at it again And it heads to its home On the north end of redded woe Well I won't be ready to go I'll deny A little bit older now Out in the wilderness With some valedictorian You had wagered up your torch And then you lost your paraffin Off the dead stump up the trees Oh, your head, it split the crease And the ghosts you may never know You will never mend I will never end And I went off then To the meadowlands Where yer momma can't That's a boundary pass on it What you woulda been What you should been died Well I'm more than that Well I'm more than that Well I'm more than that Well I'm more Well I'm more than that Well I'm more than that Well I'm more than that Well I'm more Well I'm more than that Well I'm more than that Well I'm more than that Well I'm more Well I'm more than that Well I'm more than that Well I'm more than that Well I'm more Here we go What's that supposed to be mean? It is over me All before eleven-thirty And by noon I'll be Dreading everything I won't belabor points but I will hit you in the head I won't belabor points but I will hit it on the head I won't belabor points but I will hit you on the head I won't belabor points but I will hit it on the head1</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>I will lay laid open I will lay laid I do it 'cause I'm a family man Well, I met her at a hard grave A heatwave, handshake way But the Carmex stayed Come back, do not answer the door Oh, we met up like a ski team 10 feet out With a cane man's clout My place of cear water With a beat in now And the walls turned in And your chest came out 'Cause you weren't too scared Not amounting to your mother or your father It's the memory of future 'gainst thee It's the passing end of the ashes hits the ground that you weep And you'll know we'll need a minute to repair So when you teach, you better teach 'em to share So when they're standing by a river, you won't have to say You panicked on me You might also like Oh, we met up at the High Line Great park Rose bark birch And the two stitch hurt You had this torn 'Pac tee And some horrible knees Still standing fast You always put your heart on your back And we rose up above the G league In a Teepee gloss Where your tea leaves, boss? Well, I got you R back now Not amounting to your mother or your father It's the memory of future 'gainst thee It's the passing end of the ashes hits the ground that you weep And you'll know we'll need a minute to repair So when you teach, you better teach 'em to share So when you're standing by a river, you won't have to say You panicked on me 'Cause now I'm a devotee I'm a devotee I do it 'cause I'm a family man I will lay laid open I will lay laid open I will lay laid open I will lay laid open</t>
+          <t>I will lay laid open I will lay laid I do it 'cause I'm a family man Well, I met her at a hard grave A heatwave, handshake way But the Carmex stayed Come back, do not answer the door Oh, we met up like a ski team 10 feet out With a cane man's clout My place of cear water With a beat in now And the walls turned in And your chest came out 'Cause you weren't too scared Not amounting to your mother or your father It's the memory of future 'gainst thee It's the passing end of the ashes hits the ground that you weep And you'll know we'll need a minute to repair So when you teach, you better teach 'em to share So when they're standing by a river, you won't have to say You panicked on me Oh, we met up at the High Line Great park Rose bark birch And the two stitch hurt You had this torn 'Pac tee And some horrible knees Still standing fast You always put your heart on your back And we rose up above the G league In a Teepee gloss Where your tea leaves, boss? Well, I got you R back now Not amounting to your mother or your father It's the memory of future 'gainst thee It's the passing end of the ashes hits the ground that you weep And you'll know we'll need a minute to repair So when you teach, you better teach 'em to share So when you're standing by a river, you won't have to say You panicked on me 'Cause now I'm a devotee I'm a devotee I do it 'cause I'm a family man I will lay laid open I will lay laid open I will lay laid open I will lay laid open</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>I sign it Print a new path Mind it Well, I woulda rolled past I climb it Standing in a moment, plyment Hire ditto Let her fall Climb it though Second fifty tall Fell in through the floor Fell into the floor Woo! I'm landing Seven's too long Seven new romers What's a polynomor though? Get up out the door I'm already off your reservation I'm already off your reservation Scratch that! Abandoned winnebago sack, ah Having in a motel track, ah Feathers had a real good track, ah Happens to the best attacks, ah Having feelings 1-2 black, ah Heaven in a 1-2 sack, ah Heading in on Bohermore You might also likeI'm already off your reservation I'm already off your reservation I sign it Print a new path Mind it Well, I woulda rolled past Climb it Hiding in the tour Hiding in your door I'm landing</t>
+          <t>I sign it Print a new path Mind it Well, I woulda rolled past I climb it Standing in a moment, plyment Hire ditto Let her fall Climb it though Second fifty tall Fell in through the floor Fell into the floor Woo! I'm landing Seven's too long Seven new romers What's a polynomor though? Get up out the door I'm already off your reservation I'm already off your reservation Scratch that! Abandoned winnebago sack, ah Having in a motel track, ah Feathers had a real good track, ah Happens to the best attacks, ah Having feelings 1-2 black, ah Heaven in a 1-2 sack, ah Heading in on Bohermore I'm already off your reservation I'm already off your reservation I sign it Print a new path Mind it Well, I woulda rolled past Climb it Hiding in the tour Hiding in your door I'm landing</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No time for breezy No time for arguments No time for love like now There's no time in the bardo No time in the in-between No time for love like now There's no time for dancing No time for undecideds No time for love like now Where did this all begin to change? The lockdown memories can't sustain This glistening, hanging free fall I turned away from the glorious light I turned my head and cried Whatever waiting means in this new place I am waiting for you There's no time for honey No time for psalms and thresholds Whisper a sweet prayer sigh Where did this all begin to change? The lockdown memories can't sustain This glistening, hanging free fall You might also likeI turned away from the glorious light I turned my head and cried Whatever waiting means in this new place I am waiting for you Your voice is echoing love, love, love, love, love I hear it far, far away And I am waiting for you Yes, I am waiting for you Whatever waiting means in this new place I am waiting for you Yes, I am waiting for you I am waiting for you</t>
+          <t>No time for breezy No time for arguments No time for love like now There's no time in the bardo No time in the in-between No time for love like now There's no time for dancing No time for undecideds No time for love like now Where did this all begin to change? The lockdown memories can't sustain This glistening, hanging free fall I turned away from the glorious light I turned my head and cried Whatever waiting means in this new place I am waiting for you There's no time for honey No time for psalms and thresholds Whisper a sweet prayer sigh Where did this all begin to change? The lockdown memories can't sustain This glistening, hanging free fall I turned away from the glorious light I turned my head and cried Whatever waiting means in this new place I am waiting for you Your voice is echoing love, love, love, love, love I hear it far, far away And I am waiting for you Yes, I am waiting for you Whatever waiting means in this new place I am waiting for you Yes, I am waiting for you I am waiting for you</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>I used your hands On my head I used your heart To calm my bed Well, I used to know, know, know How not to fix it up Aw, baby Aw, baby They think they know, they don't know Well then you two came along With your safety and poise To bring me a new colour To wind around my waist Snakes Lovers All in a race Has me all borderline - re-erased Has me all borderline - re-erased Has me all borderline - re-erased Has me all borderline - re-erased Has me all borderline - re-erased Has me all borderline - re-erased Has me all borderline - re-erased Has me all borderline You might also likeThey think they know, they don't know They think they know, they don't know They think they know, they don't know They think they know, they don't know Dawn tunnel Plowing the cloud Found me a new lawn robe Only fools get gold They show you films of all places Well, it's alright I miss Mike Stipe</t>
+          <t>I used your hands On my head I used your heart To calm my bed Well, I used to know, know, know How not to fix it up Aw, baby Aw, baby They think they know, they don't know Well then you two came along With your safety and poise To bring me a new colour To wind around my waist Snakes Lovers All in a race Has me all borderline - re-erased Has me all borderline - re-erased Has me all borderline - re-erased Has me all borderline - re-erased Has me all borderline - re-erased Has me all borderline - re-erased Has me all borderline - re-erased Has me all borderline They think they know, they don't know They think they know, they don't know They think they know, they don't know They think they know, they don't know Dawn tunnel Plowing the cloud Found me a new lawn robe Only fools get gold They show you films of all places Well, it's alright I miss Mike Stipe</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>To tell the truth, darling, I'd have to lead a coup Past the platitudes, right past the dotted rules I paid attention, I paid my dues Now that I know a thing or two I say thank you Would you stare eyes open if I ever came 'round with the golden gun? Would you ever light up with somebody like me? Looked like my son, he looked like a sun Would you stare eyes open if I ever came round with the golden gun? On my back, felt like it Would you ever lay down with somebody like me? On my back, felt like it It really wasn't a fall It was nothing at all All that they came in proving Well they sure was zooming I have to cast up, a big wet net through Now that I ask after you, I've gotta pass through now Would you stare eyes open if I ever came 'round with the golden gun? Would you ever light up with somebody like me? To tell the truth Would you come right over with the crown royal if I said run, run, run I'd have to lead a coup, past the platitudes Would you ever lay down with somebody like me? Right past the dotted rules Would you stare eyes open if I ever came 'round with the golden gun? I paid attention, I paid my dues, I gotta ask you Would you ever light up with somebody like me? Do you say thank you? You might also like Looked like my son I say thank you He looked like a sun I say thank you, I say thank you On my back I say thank you, I say thank you Felt like it I say thank you, I say thank you Looked like my son I say thank you, I say thank you He looked like a sun I say thank you, I say thank you On my back I say thank you, I say thank you Felt like it I say thank you, I say thank you On my back I say thank you Felt like it I say thank you, I say thank you On my back I say thank you, I say thank you Felt like it I say thank you</t>
+          <t>To tell the truth, darling, I'd have to lead a coup Past the platitudes, right past the dotted rules I paid attention, I paid my dues Now that I know a thing or two I say thank you Would you stare eyes open if I ever came 'round with the golden gun? Would you ever light up with somebody like me? Looked like my son, he looked like a sun Would you stare eyes open if I ever came round with the golden gun? On my back, felt like it Would you ever lay down with somebody like me? On my back, felt like it It really wasn't a fall It was nothing at all All that they came in proving Well they sure was zooming I have to cast up, a big wet net through Now that I ask after you, I've gotta pass through now Would you stare eyes open if I ever came 'round with the golden gun? Would you ever light up with somebody like me? To tell the truth Would you come right over with the crown royal if I said run, run, run I'd have to lead a coup, past the platitudes Would you ever lay down with somebody like me? Right past the dotted rules Would you stare eyes open if I ever came 'round with the golden gun? I paid attention, I paid my dues, I gotta ask you Would you ever light up with somebody like me? Do you say thank you? Looked like my son I say thank you He looked like a sun I say thank you, I say thank you On my back I say thank you, I say thank you Felt like it I say thank you, I say thank you Looked like my son I say thank you, I say thank you He looked like a sun I say thank you, I say thank you On my back I say thank you, I say thank you Felt like it I say thank you, I say thank you On my back I say thank you Felt like it I say thank you, I say thank you On my back I say thank you, I say thank you Felt like it I say thank you</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hide in the grass Whole amount of love to the task Where we smoke again Over knocked out fast Over night my body Turns a top, turn a top Over night my guidance Turns a coal rider Friday night Friday night Over my dead body To the mop, to the mop Over my dead body Through the clock rye Over the task All to do a matador mask Wait in the path Where we smoke again fast Over night my guiding Whole amount of love to the task Whole amount of love to the task Whole amount of love to the task Whole amount of love to the task You might also likeOver my dead body Through the rock, through the clock Over your dead body Wanna live again Wanna live again Keep on living then Friday night Friday night Over mind no matter With a mock, with a mock Over laid my time To the mop, to the mop Over night my body Turn the lock, turn the lock Silver lite my miser My Clover thy lie silent To the cop, to the crop Over lite my martyr Oh my minds all mine Over my dead body Through the lock, through the clock There's a way to go There's a way to go Friday night Over mind, over no matter With a mock, with a mock Over laid my time To the -my body Over night my body Turn the lock, turn the lock Over night my body Oh my mind, oh my mind Over my dead body Through the clock, through the clock Through the rock, through the clock There's a way to go Over my dead Oh my mind, oh my Over my Over my Over my Over my dead To the mop, to the mop</t>
+          <t>Hide in the grass Whole amount of love to the task Where we smoke again Over knocked out fast Over night my body Turns a top, turn a top Over night my guidance Turns a coal rider Friday night Friday night Over my dead body To the mop, to the mop Over my dead body Through the clock rye Over the task All to do a matador mask Wait in the path Where we smoke again fast Over night my guiding Whole amount of love to the task Whole amount of love to the task Whole amount of love to the task Whole amount of love to the task Over my dead body Through the rock, through the clock Over your dead body Wanna live again Wanna live again Keep on living then Friday night Friday night Over mind no matter With a mock, with a mock Over laid my time To the mop, to the mop Over night my body Turn the lock, turn the lock Silver lite my miser My Clover thy lie silent To the cop, to the crop Over lite my martyr Oh my minds all mine Over my dead body Through the lock, through the clock There's a way to go There's a way to go Friday night Over mind, over no matter With a mock, with a mock Over laid my time To the -my body Over night my body Turn the lock, turn the lock Over night my body Oh my mind, oh my mind Over my dead body Through the clock, through the clock Through the rock, through the clock There's a way to go Over my dead Oh my mind, oh my Over my Over my Over my Over my dead To the mop, to the mop</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>You were alive And you were unafraid Of how much the world could take from you So how did you lose your way? And what can you tell me now? How are you these days? I want to know everything How hard are times out there? These are the things That I wish I could've said To you So I can relate With the notion of need to erase me I know you weren't faking or making it up How did it get that bad? Did you even hesitate? You go out so far to escape To try and replace your fate So you say Thre's no need to contemplate Lik we all end up dead anyway And there are no remedies ready But I swear there are many But I swear there are many And if I could I would pick you back up to the topYou might also like</t>
+          <t>You were alive And you were unafraid Of how much the world could take from you So how did you lose your way? And what can you tell me now? How are you these days? I want to know everything How hard are times out there? These are the things That I wish I could've said To you So I can relate With the notion of need to erase me I know you weren't faking or making it up How did it get that bad? Did you even hesitate? You go out so far to escape To try and replace your fate So you say Thre's no need to contemplate Lik we all end up dead anyway And there are no remedies ready But I swear there are many But I swear there are many And if I could I would pick you back up to the top</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>You rolling Jon? Rolling Every time I drive up on fifty-three I'm seeing sideways up ahead of me There's little lakes, there's little fountains There's little molehills made out of mountains There's little prayers that I perceive, ah Every time I drive up on fifty-four It goes past Mick's and Dick's general store There goes the signal, it's dropped for miles There goes the static at the top of the dial Every wild land screened in By only a hundred years of white men Who am I to witness, who am I to see Who am I to notice which way a tree Falling alone falls silently Half a mile later, just past the sign There's a Winnebago, an Econoline I smell the lake on up aways I know the exit and the parking place You might also like We used to swim out in the sun We were swimming out there under heaven We were too young to have been unforgiven Who are you to listen, who are you to care? Just someone who knows me from anywhere Where do we come from? Out of thin air I hear you whisper in the back of my hair</t>
+          <t>You rolling Jon? Rolling Every time I drive up on fifty-three I'm seeing sideways up ahead of me There's little lakes, there's little fountains There's little molehills made out of mountains There's little prayers that I perceive, ah Every time I drive up on fifty-four It goes past Mick's and Dick's general store There goes the signal, it's dropped for miles There goes the static at the top of the dial Every wild land screened in By only a hundred years of white men Who am I to witness, who am I to see Who am I to notice which way a tree Falling alone falls silently Half a mile later, just past the sign There's a Winnebago, an Econoline I smell the lake on up aways I know the exit and the parking place We used to swim out in the sun We were swimming out there under heaven We were too young to have been unforgiven Who are you to listen, who are you to care? Just someone who knows me from anywhere Where do we come from? Out of thin air I hear you whisper in the back of my hair</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Take me high, lay me low You know my thoughts before I know Lift me up when I'm down You watched my back when we were young You watched my back when we were young You stick around when we're old I'm sleeping sound when you're in the room You help me stay above the ground You said I couldn't take it I wouldn't make it I hate to say it Oh, wait a minute I couldn't take it Over it now You take me high, you lay me low You know my thoughts before I know I wore it out, you wore me down You watched my back when we were young You might also like You said I couldn't take it I wouldn't make it I hate to say it Oh, wait a minute I couldn't take it Over it now You said I can relate It's all in your mind I hate to say it Oh, wait a minute I couldn't take it Oh, not to worry Over it now If I'm the trouble You're the storm If I'm the sound You're the song If I'm the thunder You're the law If I'm the dusk You're the walk You said I couldn't take it I can relate Oh, wait a minute I wouldn't say it Over the top I wouldn't make it I hesitate Oh, wait a minute I hate to say it Deny he's worth saving Oh, I didn't mean it Over it now You said I can relate You couldn't take it Oh, wait a minute Honey where's the money I hate to say it Deny he's worth saving Over it now Lift me up when I'm feeling down Help me stay above the ground</t>
+          <t>Take me high, lay me low You know my thoughts before I know Lift me up when I'm down You watched my back when we were young You watched my back when we were young You stick around when we're old I'm sleeping sound when you're in the room You help me stay above the ground You said I couldn't take it I wouldn't make it I hate to say it Oh, wait a minute I couldn't take it Over it now You take me high, you lay me low You know my thoughts before I know I wore it out, you wore me down You watched my back when we were young You said I couldn't take it I wouldn't make it I hate to say it Oh, wait a minute I couldn't take it Over it now You said I can relate It's all in your mind I hate to say it Oh, wait a minute I couldn't take it Oh, not to worry Over it now If I'm the trouble You're the storm If I'm the sound You're the song If I'm the thunder You're the law If I'm the dusk You're the walk You said I couldn't take it I can relate Oh, wait a minute I wouldn't say it Over the top I wouldn't make it I hesitate Oh, wait a minute I hate to say it Deny he's worth saving Oh, I didn't mean it Over it now You said I can relate You couldn't take it Oh, wait a minute Honey where's the money I hate to say it Deny he's worth saving Over it now Lift me up when I'm feeling down Help me stay above the ground</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>I was hoping then I was hoping that you'd I was hoping that you'd follow me out there Down the one In the hopes of making All the in room weather Just sit down and listen It's not a rare condition Just admit that you miss him It's a mixed thing, innit? See the land is missing It's on the edge It's on the edge of why I can't sleep soundly It's on the edge of what we're grateful for It's on the edge of why I can't sleep soundly It's on the edge of what we're grateful for I was hoping then I was hoping that you'd I was hoping that you'd follow me out there Do I need permission To break tradition? In the end its better In the end you weather You might also like It's on the edge It's on the edge of why I can't sleep soundly It's on the edge of what we're grateful for It's on the edge of why I can't sleep soundly It's on the edge of what we're grateful for It's on the edge of why I can't sleep soundly It's on the edge of what we're grateful for It's on the edge of why I can't sleep soundly It's on the edge of what we're grateful for It's on the edge of why I can't sleep soundly It's on the edge of what we're grateful for It's on the edge of why I can't sleep soundly It's on the edge of what we're grateful for It's on the edge of why I can't sleep soundly It's on the edge of what we're grateful for</t>
+          <t>I was hoping then I was hoping that you'd I was hoping that you'd follow me out there Down the one In the hopes of making All the in room weather Just sit down and listen It's not a rare condition Just admit that you miss him It's a mixed thing, innit? See the land is missing It's on the edge It's on the edge of why I can't sleep soundly It's on the edge of what we're grateful for It's on the edge of why I can't sleep soundly It's on the edge of what we're grateful for I was hoping then I was hoping that you'd I was hoping that you'd follow me out there Do I need permission To break tradition? In the end its better In the end you weather It's on the edge It's on the edge of why I can't sleep soundly It's on the edge of what we're grateful for It's on the edge of why I can't sleep soundly It's on the edge of what we're grateful for It's on the edge of why I can't sleep soundly It's on the edge of what we're grateful for It's on the edge of why I can't sleep soundly It's on the edge of what we're grateful for It's on the edge of why I can't sleep soundly It's on the edge of what we're grateful for It's on the edge of why I can't sleep soundly It's on the edge of what we're grateful for It's on the edge of why I can't sleep soundly It's on the edge of what we're grateful for</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mocking, glaring Well the best of it was caring More than modelling You shook a leaf from a ledge and falling Brought the ground back To where it began Untethering Untethering May's a ruin Unsight of you June's a river Unsight of you May's a ruin Unsight of you June's a river Nearly through Better side staring Soft glide, I swear it Took me in my tracks Fairing badly Without, without, without Your hour in the daytime You might also like Calcing, caring Well the soft of you, unbearing Calcing, caring Well the soft of you, unbearing Calcing, caring Well the soft of you, unbearing May's a ruin Unsight of you June's a river Unsight of you May's a ruin Unsight of you June's a river, but I'm narly through Course I'm wary Well the sight of you, unbaring Course I'm wary Well the sight of you, unbearing Mocking, glaring Well the best of it was caring More than modelling You shook a leaf from a ledge and falling Brought the ground back To where it Began untethering Untethering May's a ruin Unsight of you June's a river Nearly through May's a ruin Unsight of you June's a river Well nearly through May's a ruin Unsight of you June's a river Nearly through May's a ruin Unsight of you</t>
+          <t>Mocking, glaring Well the best of it was caring More than modelling You shook a leaf from a ledge and falling Brought the ground back To where it began Untethering Untethering May's a ruin Unsight of you June's a river Unsight of you May's a ruin Unsight of you June's a river Nearly through Better side staring Soft glide, I swear it Took me in my tracks Fairing badly Without, without, without Your hour in the daytime Calcing, caring Well the soft of you, unbearing Calcing, caring Well the soft of you, unbearing Calcing, caring Well the soft of you, unbearing May's a ruin Unsight of you June's a river Unsight of you May's a ruin Unsight of you June's a river, but I'm narly through Course I'm wary Well the sight of you, unbaring Course I'm wary Well the sight of you, unbearing Mocking, glaring Well the best of it was caring More than modelling You shook a leaf from a ledge and falling Brought the ground back To where it Began untethering Untethering May's a ruin Unsight of you June's a river Nearly through May's a ruin Unsight of you June's a river Well nearly through May's a ruin Unsight of you June's a river Nearly through May's a ruin Unsight of you</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>I'm, I'm gonna, I'm gonna keep, I'm gonna keep going, I'm gonna keep going Well if someone who would tell you, they can't love you You go the other way Well if someone tell you that they love you And you can't, you go the other way I'm, I'm gonna, I'm gonna keep, I'm gonna keep going, I'm gonna keep going You go the other way around You go the other way around Turns there this way, turns there this way I was a hollering the other night Do anything they say Don't let nobody tell you that they don't love you, no You go the other way around Laid out like a book You're reading my whole mind Highlighting, highlighting the intimate things they've found Shame, shame, shame, shame's the one that leads you down The wrong road to be robbed blind, blind, blind Still it's the eye that deceits You can't hypnotize me You can't hypnotize me I'm so easy, I'm so easy, I'm so easy You can't hypnotize me Are you frowning now? You go the other way around Other way around I'm so easy, I'm so easy, I'm so easy Other way around Other way around You can't hypnotize me I'm so easy, I'm so easy, I'm so easy But I'm so easy to sabotage I'm so easy, I'm so easy, I'm so easy You can't hypnotize me I was a hollering the other night But I'm so easy to sabotage You know you can't hypnotize me I'm so easy, I'm so easy, I'm so easy But I'm so easy, to sabotage I'm so easy, I'm so easy, I'm so easy Turns there this way, turns there this way I was a hollering the other night Do anything they say You might also like Laid out like a book You're reading my whole mind Highlighting, highlighting the intimate things they've found Shame, shame, shame, shame's the one that leads you down The wrong road to be robbed blind, blind, blind Still it's the eye that deceits In blindness we are free The beautiful ones every time I'm so easy to sabotage I'm so easy, I'm so easy, I'm so easy Laid out like a book You're reading my whole mind I'm so easy, I'm so easy, I'm so easy Highlighting, highlighting the intimate things they've found I'm so easy, I'm so easy, I'm so easy Shame, shame, shame, shame's the one that leads you down I'm so easy, I'm so easy, I'm so easy The wrong road to be robbed blind, blind, blind I'm so easy, I'm so easy, I'm so easy Still it's the eye that deceits In blindness we are free Are you frowning now? The beautiful ones every time I'm so easy, I'm so easy, I'm so easy Can't hypnotize me, no way Have you found it now? Are you frowning now? Have you found it now? Are you frowning now?</t>
+          <t>I'm, I'm gonna, I'm gonna keep, I'm gonna keep going, I'm gonna keep going Well if someone who would tell you, they can't love you You go the other way Well if someone tell you that they love you And you can't, you go the other way I'm, I'm gonna, I'm gonna keep, I'm gonna keep going, I'm gonna keep going You go the other way around You go the other way around Turns there this way, turns there this way I was a hollering the other night Do anything they say Don't let nobody tell you that they don't love you, no You go the other way around Laid out like a book You're reading my whole mind Highlighting, highlighting the intimate things they've found Shame, shame, shame, shame's the one that leads you down The wrong road to be robbed blind, blind, blind Still it's the eye that deceits You can't hypnotize me You can't hypnotize me I'm so easy, I'm so easy, I'm so easy You can't hypnotize me Are you frowning now? You go the other way around Other way around I'm so easy, I'm so easy, I'm so easy Other way around Other way around You can't hypnotize me I'm so easy, I'm so easy, I'm so easy But I'm so easy to sabotage I'm so easy, I'm so easy, I'm so easy You can't hypnotize me I was a hollering the other night But I'm so easy to sabotage You know you can't hypnotize me I'm so easy, I'm so easy, I'm so easy But I'm so easy, to sabotage I'm so easy, I'm so easy, I'm so easy Turns there this way, turns there this way I was a hollering the other night Do anything they say Laid out like a book You're reading my whole mind Highlighting, highlighting the intimate things they've found Shame, shame, shame, shame's the one that leads you down The wrong road to be robbed blind, blind, blind Still it's the eye that deceits In blindness we are free The beautiful ones every time I'm so easy to sabotage I'm so easy, I'm so easy, I'm so easy Laid out like a book You're reading my whole mind I'm so easy, I'm so easy, I'm so easy Highlighting, highlighting the intimate things they've found I'm so easy, I'm so easy, I'm so easy Shame, shame, shame, shame's the one that leads you down I'm so easy, I'm so easy, I'm so easy The wrong road to be robbed blind, blind, blind I'm so easy, I'm so easy, I'm so easy Still it's the eye that deceits In blindness we are free Are you frowning now? The beautiful ones every time I'm so easy, I'm so easy, I'm so easy Can't hypnotize me, no way Have you found it now? Are you frowning now? Have you found it now? Are you frowning now?</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Was it far When you fell? Was it hard Can you tell me? Magnolia Can you tell me? Did you forget? Did you grieve yet? Did you regret? Did you heal yet? Magnolia Did you heal yet? You were out on a ledge that night Anything to avoid a fight I was worried you lost your mind lost track of time til you came back Was it far When you fell? Was it hard Can you tell me? Magnolia Can you tell me? Did you accept He's a demon? Did you regret? Did you leave him? Magnolia Did you leave him? You might also likeWhat's ahead? Lift your eyes up Need to mend Pick yourself up Magnolia Pick yourself up Out from under this axiom Wish that I could just save you from You were grieving the treachery The lechery when I came home You were out on a ledge that night Anything to avoid a fight I was worried you lost your mind lost track of time til you came back Too soon It's all gone Well I'm home Who knew? It's all gone Wish I'd known In the ashes of In the Ohio In the river flow I watch you go Well you burned it down And erased this town Well you had to go Well I should know Was it far When you fell? Was it hard Can you tell me? Magnolia Can you tell me? Did you forget? Did you grieve yet? Did you regret? Did you heal yet? Magnolia Did you heal yet? What's ahead? Lift your eyes up Need to mend Pick yourself up Magnolia Pick yourself up Too soon It's all gone Well I'm home Who knew? It's all wrong Wish I'd known Too soon It's all gone Wish I was home</t>
+          <t>Was it far When you fell? Was it hard Can you tell me? Magnolia Can you tell me? Did you forget? Did you grieve yet? Did you regret? Did you heal yet? Magnolia Did you heal yet? You were out on a ledge that night Anything to avoid a fight I was worried you lost your mind lost track of time til you came back Was it far When you fell? Was it hard Can you tell me? Magnolia Can you tell me? Did you accept He's a demon? Did you regret? Did you leave him? Magnolia Did you leave him? What's ahead? Lift your eyes up Need to mend Pick yourself up Magnolia Pick yourself up Out from under this axiom Wish that I could just save you from You were grieving the treachery The lechery when I came home You were out on a ledge that night Anything to avoid a fight I was worried you lost your mind lost track of time til you came back Too soon It's all gone Well I'm home Who knew? It's all gone Wish I'd known In the ashes of In the Ohio In the river flow I watch you go Well you burned it down And erased this town Well you had to go Well I should know Was it far When you fell? Was it hard Can you tell me? Magnolia Can you tell me? Did you forget? Did you grieve yet? Did you regret? Did you heal yet? Magnolia Did you heal yet? What's ahead? Lift your eyes up Need to mend Pick yourself up Magnolia Pick yourself up Too soon It's all gone Well I'm home Who knew? It's all wrong Wish I'd known Too soon It's all gone Wish I was home</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>And it's that time in the morning When I was born Tears were all around to an open floor Around to an open floor Day I Well I Well it's that time in the afternoon When I could see it All us, all us, all us Oh, it's too bad Pouring out the windows wide, I only like Wait Windows down Windows down If you wait for me Wait for me Whenever you've lost space Whenever I lost you I was just like you Remember I'm right here Whenever I'm needed All that I see You might also like Songs of feathers and glory Early morning flights All these years ago Seeing darknss out of the window Wait for me Wait for us, ooo Seeing darkness out of th window Ooo Wait for us Seeing darkness out of the window Whenever you've lost space Whenever I lost you I was just like you Remember I'm right here Whenever I'm needed All that I see Well it's that time in the evening That I look out the door And everybody saw it And everybody saw it Well it's too bad way Well it's just that way All of us together this way All of us a feather away</t>
+          <t>And it's that time in the morning When I was born Tears were all around to an open floor Around to an open floor Day I Well I Well it's that time in the afternoon When I could see it All us, all us, all us Oh, it's too bad Pouring out the windows wide, I only like Wait Windows down Windows down If you wait for me Wait for me Whenever you've lost space Whenever I lost you I was just like you Remember I'm right here Whenever I'm needed All that I see Songs of feathers and glory Early morning flights All these years ago Seeing darknss out of the window Wait for me Wait for us, ooo Seeing darkness out of th window Ooo Wait for us Seeing darkness out of the window Whenever you've lost space Whenever I lost you I was just like you Remember I'm right here Whenever I'm needed All that I see Well it's that time in the evening That I look out the door And everybody saw it And everybody saw it Well it's too bad way Well it's just that way All of us together this way All of us a feather away</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>To say the things I want to say to you would be a crime To admit I'm still in love with you even after all this time I'd rather let you touch my arm until you die Seduce me with your charms until I'm drunk on them Go home and drink in bed and never let myself be in love like that again Light a cigarette and think of you and walk away Turning all the words around in my head, I won't stay Because of all these triangles and squares The memory we seem to share replays a distant love that plays my records on Nevr let myself love lik that again Never let myself love like that again To say the words I want to say to you would be a lie By the time I get the courage I am drunk and you are tired Alone down in this basement where I will write these songs Of things I'll never say to you again and you know why Never let myself love like that again Never let myself love like that again Never letYou might also like</t>
+          <t>To say the things I want to say to you would be a crime To admit I'm still in love with you even after all this time I'd rather let you touch my arm until you die Seduce me with your charms until I'm drunk on them Go home and drink in bed and never let myself be in love like that again Light a cigarette and think of you and walk away Turning all the words around in my head, I won't stay Because of all these triangles and squares The memory we seem to share replays a distant love that plays my records on Nevr let myself love lik that again Never let myself love like that again To say the words I want to say to you would be a lie By the time I get the courage I am drunk and you are tired Alone down in this basement where I will write these songs Of things I'll never say to you again and you know why Never let myself love like that again Never let myself love like that again Never let</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>The all lip fountain And the air stryp And the bracelets And the children know New songs That are old songs for us You could see it in the moon It was hovering at noon With a lick gone bad With a good strong laugh Phony little path Phoning for the past Fucking up your classic You could see it in the moon Drive by vroom Drive by vroom, drive by vroom Drive by vroom In the light of the moon In an old canoe Whats a girl to do In a world like you?You might also like</t>
+          <t>The all lip fountain And the air stryp And the bracelets And the children know New songs That are old songs for us You could see it in the moon It was hovering at noon With a lick gone bad With a good strong laugh Phony little path Phoning for the past Fucking up your classic You could see it in the moon Drive by vroom Drive by vroom, drive by vroom Drive by vroom In the light of the moon In an old canoe Whats a girl to do In a world like you?</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>When you want it don't you wait it, did you wander all the way around? Then we'll come and get it Are you gonna take the car then a tour and walk it around Come and get it Well it'll open in your morning when you're combing it around Come and get it But I don't know if it's a coming But I know that it's a cure Come and get it Well you come and then you run and then you're coming around Well come and get it Well you know which way to go And you know all the roads that you close I don't know when to come and get it But I'm goin' on in over the top as if it's properly gone Well you're coming if they bury me Well you're gonna lead across town How d'you know we don't turn around? Come and get it Well I'm coming either way, I been really meaning to come right back What you doin' all the way across town then? Come and get it What you all the way across town for then? Come and get itYou might also like</t>
+          <t>When you want it don't you wait it, did you wander all the way around? Then we'll come and get it Are you gonna take the car then a tour and walk it around Come and get it Well it'll open in your morning when you're combing it around Come and get it But I don't know if it's a coming But I know that it's a cure Come and get it Well you come and then you run and then you're coming around Well come and get it Well you know which way to go And you know all the roads that you close I don't know when to come and get it But I'm goin' on in over the top as if it's properly gone Well you're coming if they bury me Well you're gonna lead across town How d'you know we don't turn around? Come and get it Well I'm coming either way, I been really meaning to come right back What you doin' all the way across town then? Come and get it What you all the way across town for then? Come and get it</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>I was gonna give you all of my time More time More time I was gonna go and get you more time More time More time I was gonna give you more and more time I ain't lying I was gonna give you loads of more time My time Its my time How am I gonna get you out of my mind? More time More time How am I gonna get you out of my mind? More time More time I was gonna give us more and more time I ain't lying I ain't lying You might also likeI was gonna get you more and more time I ain't lying I ain't lying Every bit assaulted, but lauded, and part of the profits On account of the coffin Dont call me a maudlin Tongue knotted often Do you remember when we went and took apart your closet? Took apart your closet More time Then I was gonna go and get you more time More time More time More time More time My time More time More time Our time I was gonna put it in my pocket For every drying socket But hocked it when I marked it When you're alone I gave you all of my time But you really want But you really want But you really want More time More time But you really want More More space I can't But I can't I can't But I can't But I can't But I can't But I can't But I can't But I cant But I cant But I cant But I cant But I cant1</t>
+          <t>I was gonna give you all of my time More time More time I was gonna go and get you more time More time More time I was gonna give you more and more time I ain't lying I was gonna give you loads of more time My time Its my time How am I gonna get you out of my mind? More time More time How am I gonna get you out of my mind? More time More time I was gonna give us more and more time I ain't lying I ain't lying I was gonna get you more and more time I ain't lying I ain't lying Every bit assaulted, but lauded, and part of the profits On account of the coffin Dont call me a maudlin Tongue knotted often Do you remember when we went and took apart your closet? Took apart your closet More time Then I was gonna go and get you more time More time More time More time More time My time More time More time Our time I was gonna put it in my pocket For every drying socket But hocked it when I marked it When you're alone I gave you all of my time But you really want But you really want But you really want More time More time But you really want More More space I can't But I can't I can't But I can't But I can't But I can't But I can't But I can't But I cant But I cant But I cant But I cant But I cant1</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>I can't be all you got I can't be all you got Why wait if you know what's coming? No, I can't be all you got I can't be all you got I can't be all you got I can't be all you got Why wait if you know what's coming? I won't be all you got I can't be all you got Why wait if you know what's coming? Why wait if you know what's coming? Well, I can't be all you got I can't be all you got I can't be all you got I can't be all you got I can't be all you got I can't be all you got I can't be all you got I can't be I can't be all you got Cause I can't be all you got Why wait when you know what's coming? You might also likeI can't be all you got I can't be all you got I can't be all you got When you know what's coming I can't be all you got Cause I can't be all you got Why wait when you know what's coming?</t>
+          <t>I can't be all you got I can't be all you got Why wait if you know what's coming? No, I can't be all you got I can't be all you got I can't be all you got I can't be all you got Why wait if you know what's coming? I won't be all you got I can't be all you got Why wait if you know what's coming? Why wait if you know what's coming? Well, I can't be all you got I can't be all you got I can't be all you got I can't be all you got I can't be all you got I can't be all you got I can't be all you got I can't be I can't be all you got Cause I can't be all you got Why wait when you know what's coming? I can't be all you got I can't be all you got I can't be all you got When you know what's coming I can't be all you got Cause I can't be all you got Why wait when you know what's coming?</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>I awoke, but I find out I awoke, but I find out I awoke, but I find out I awoke, but I find out But I find out And when our wrists start to run An' I find out And when our wrists start to run But I find out And when our wrists start to run Our wrist start to run I find out Now when our wrists start to run And I find out And when our wrists start to run Better run And when our wrists start to run And, and I find out Then when our wrists start to run And I find out Then, then when our wrists start to run And I, and I-You might also like</t>
+          <t>I awoke, but I find out I awoke, but I find out I awoke, but I find out I awoke, but I find out But I find out And when our wrists start to run An' I find out And when our wrists start to run But I find out And when our wrists start to run Our wrist start to run I find out Now when our wrists start to run And I find out And when our wrists start to run Better run And when our wrists start to run And, and I find out Then when our wrists start to run And I find out Then, then when our wrists start to run And I, and I-</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>I can't be all you got I can't be all you got Why wait if you know what's coming? No, I can't be all you got I can't be all you got I can't be all you got I can't be all you got Why wait if you know what's coming? I won't be all you got I can't be all you got Why wait if you know what's coming? Why wait if you know what's coming?You might also like</t>
+          <t>I can't be all you got I can't be all you got Why wait if you know what's coming? No, I can't be all you got I can't be all you got I can't be all you got I can't be all you got Why wait if you know what's coming? I won't be all you got I can't be all you got Why wait if you know what's coming? Why wait if you know what's coming?</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are You might also likeWell, you're out on the street And you're having a laugh Well there's nothing beseeched You got no kind of map Well, you wanted to keep So just follow your feet With your heart in your mouth And your boring that Peet Are you hot on the couch? And you're blowing through pouches Well, you are who you are Well, you are who you are Well, you are who you are Yeah Well, you want it to keep So you stay on your sea Well, you know it's a scene When you're having to seem Well, I know it's a struggle It's some kind of debacle Well, you are who you are Well you are who you are, who you are, who you are, who you are, who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, I know it's a struggle It's some kind of debacle Well, I know it's a struggle It's some kind of debacle now Well, I know it's a struggle It's some kind of debacle And you fancy your feast But you dreading your speech Just follow your feet Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are</t>
+          <t>Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you're out on the street And you're having a laugh Well there's nothing beseeched You got no kind of map Well, you wanted to keep So just follow your feet With your heart in your mouth And your boring that Peet Are you hot on the couch? And you're blowing through pouches Well, you are who you are Well, you are who you are Well, you are who you are Yeah Well, you want it to keep So you stay on your sea Well, you know it's a scene When you're having to seem Well, I know it's a struggle It's some kind of debacle Well, you are who you are Well you are who you are, who you are, who you are, who you are, who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, I know it's a struggle It's some kind of debacle Well, I know it's a struggle It's some kind of debacle now Well, I know it's a struggle It's some kind of debacle And you fancy your feast But you dreading your speech Just follow your feet Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are Well, you are who you are</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>I lay down Well it's good to carry on Grandmother When it's cause to patch a bond I'm sorry you broke your bone Your bone Your bone When I've cause to lay alone And it got caught back on, head on Savage it I know But is it good to has to I for my, Well it's good to carry on For a day it might be wrong For a year it might be wrong Foretelling might be wrong But you're back where you belong It's and mighty To set it on my way And we'll see you in the morning I won't let it call you out You might also like Good to carry on With a mountain of her courage 'Cause it's good to carry on In the day, just not enough courage mind, oh man Oh my, grown late It's all high and mighty To set it on my way And I'll see you in the morning I will let it crawl on out Oh yeah Wll I'll tell the tide to know Just how you tid up to the tow But you had to kill along the way of this road To get to where you go Get to where you go To get to where you go You must have hid a hole You're vulnerable yourself But it's easy you betroth Just go easy to the breathe deep now No more knee deep now No more knees on now No more knees on now No more knees on now No more knees</t>
+          <t>I lay down Well it's good to carry on Grandmother When it's cause to patch a bond I'm sorry you broke your bone Your bone Your bone When I've cause to lay alone And it got caught back on, head on Savage it I know But is it good to has to I for my, Well it's good to carry on For a day it might be wrong For a year it might be wrong Foretelling might be wrong But you're back where you belong It's and mighty To set it on my way And we'll see you in the morning I won't let it call you out Good to carry on With a mountain of her courage 'Cause it's good to carry on In the day, just not enough courage mind, oh man Oh my, grown late It's all high and mighty To set it on my way And I'll see you in the morning I will let it crawl on out Oh yeah Wll I'll tell the tide to know Just how you tid up to the tow But you had to kill along the way of this road To get to where you go Get to where you go To get to where you go You must have hid a hole You're vulnerable yourself But it's easy you betroth Just go easy to the breathe deep now No more knee deep now No more knees on now No more knees on now No more knees on now No more knees</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>I tapped on your window on your darkest night The shape of you was jagged and weak There was nowhere for me to stay, but I stayed anyway And if I would've known how many pieces you had crumbled into I might have let them lay Are you really gonna talk about timing in times like these? And let all your damage damage me And carry your baggage up my street And make me your future history, it's time You've come a long way open the blinds, let me see your face You wouldn't be th first renegade to need sombody Is it insensitive for me to say, Get your shit together so I can love you? Is it really your anxiety that stops you from giving me everything? Or do you just not want to? I tapped on your window on your darkest night The shape of you was jagged and weak There was nowhere for me to stay, but I stayed anyway You fire off missiles 'cause you hate yourself But do you know you're demolishing me? And then you squeeze my hand as I'm about to leave You might also like Are you really gonna talk about timing in times like these? And let all your damage damage me And carry your baggage up my street And make me your future history, it's time You've come a long way open the blinds, let me see your face You wouldn't be the first renegade to need somebody Is it insensitive for me to say, Get your shit together so I can love you? Is it really your anxiety that stops you from giving me everything? Or do you just not want to? And if I would've known How sharp the pieces were you'd crumbled into I might've let them lay Are you really gonna talk about timing in times like these? And let all your damage damage me And carry your baggage up my street And make me your future history, it's time You've come a long way open the blinds, let me see your face You wouldn't be the first renegade to need somebody To need somebody, to need somebody, to need somebody, to need Are you really gonna talk about timing in times like these? And let all your damage damage me And carry your baggage up my street And make me your future history, it's time Is it insensitive for me to say, Get your shit together so I can love you? You've come a long way, open the blinds, let me see your face You wouldn't be the first renegade to need somebody Is it really your anxiety that stops you from giving me everything? Or do you just not want to?</t>
+          <t>I tapped on your window on your darkest night The shape of you was jagged and weak There was nowhere for me to stay, but I stayed anyway And if I would've known how many pieces you had crumbled into I might have let them lay Are you really gonna talk about timing in times like these? And let all your damage damage me And carry your baggage up my street And make me your future history, it's time You've come a long way open the blinds, let me see your face You wouldn't be th first renegade to need sombody Is it insensitive for me to say, Get your shit together so I can love you? Is it really your anxiety that stops you from giving me everything? Or do you just not want to? I tapped on your window on your darkest night The shape of you was jagged and weak There was nowhere for me to stay, but I stayed anyway You fire off missiles 'cause you hate yourself But do you know you're demolishing me? And then you squeeze my hand as I'm about to leave Are you really gonna talk about timing in times like these? And let all your damage damage me And carry your baggage up my street And make me your future history, it's time You've come a long way open the blinds, let me see your face You wouldn't be the first renegade to need somebody Is it insensitive for me to say, Get your shit together so I can love you? Is it really your anxiety that stops you from giving me everything? Or do you just not want to? And if I would've known How sharp the pieces were you'd crumbled into I might've let them lay Are you really gonna talk about timing in times like these? And let all your damage damage me And carry your baggage up my street And make me your future history, it's time You've come a long way open the blinds, let me see your face You wouldn't be the first renegade to need somebody To need somebody, to need somebody, to need somebody, to need Are you really gonna talk about timing in times like these? And let all your damage damage me And carry your baggage up my street And make me your future history, it's time Is it insensitive for me to say, Get your shit together so I can love you? You've come a long way, open the blinds, let me see your face You wouldn't be the first renegade to need somebody Is it really your anxiety that stops you from giving me everything? Or do you just not want to?</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Hey Hey Hey Hey When I was young I played That an old mother , grooved to the I'll be askin at Thanksgiving If our bodies , I'll be askin' Gonna be a nasty ride home , I were livin' in It was only a front, youre calvin' up a trunk, it is on It is on, they said I'd kick off We were all laughing about the way to drive the Relied on Arrivin' But it's not to make a ruin It's not to Told me it was only it from Flash back to the Falcon's home, too fast on a west side crime Two cups in a still involved in a Calm it down, I know It was all coming down It was all coming down It was all coming down until that You might also like</t>
+          <t>Hey Hey Hey Hey When I was young I played That an old mother , grooved to the I'll be askin at Thanksgiving If our bodies , I'll be askin' Gonna be a nasty ride home , I were livin' in It was only a front, youre calvin' up a trunk, it is on It is on, they said I'd kick off We were all laughing about the way to drive the Relied on Arrivin' But it's not to make a ruin It's not to Told me it was only it from Flash back to the Falcon's home, too fast on a west side crime Two cups in a still involved in a Calm it down, I know It was all coming down It was all coming down It was all coming down until that</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Big Jim Bars Adaptation is the key to survival I could never fold I'm too bright like the sun I will always glow But if I blow up big they would call me a cockroach no Cosby show True E late story no night or tabloid hoax I love my mom pops and sis I been around since the filming of French Kiss and been in the city like Fresh prince I'm an educated fellow no plot thicken just an inference This gift wrapped bar seasoned with an army tan Watch Out 4 haters cause I see them from afar like loose dogs in protected no harm fam I'm trying to a deal with lord bishop make it knock and cassidy To put the pieces in order Big Jim has to zigzag through lanes bring my knight then go up and down like a room see Trial and error that's how most dogs learn bars shaping history Victorian We can detect southern accents and. Famous black waitresses count in stacks on mattresses I'm prim and proper playing roles call it Mary Poppins medicine down in the most delightful way A spiteful sway from set out of fate Bullhorn blow you can't understand me I'm not homeless red hair Annie More puns than the laugh factory I took the world by storm not x men but when I assimilate lines morphed into Cyborg I don't repeat myself you luck fly heard what I said Economics goes up and the supply goes down leaving plebians with faces rough redYou might also like</t>
+          <t>Big Jim Bars Adaptation is the key to survival I could never fold I'm too bright like the sun I will always glow But if I blow up big they would call me a cockroach no Cosby show True E late story no night or tabloid hoax I love my mom pops and sis I been around since the filming of French Kiss and been in the city like Fresh prince I'm an educated fellow no plot thicken just an inference This gift wrapped bar seasoned with an army tan Watch Out 4 haters cause I see them from afar like loose dogs in protected no harm fam I'm trying to a deal with lord bishop make it knock and cassidy To put the pieces in order Big Jim has to zigzag through lanes bring my knight then go up and down like a room see Trial and error that's how most dogs learn bars shaping history Victorian We can detect southern accents and. Famous black waitresses count in stacks on mattresses I'm prim and proper playing roles call it Mary Poppins medicine down in the most delightful way A spiteful sway from set out of fate Bullhorn blow you can't understand me I'm not homeless red hair Annie More puns than the laugh factory I took the world by storm not x men but when I assimilate lines morphed into Cyborg I don't repeat myself you luck fly heard what I said Economics goes up and the supply goes down leaving plebians with faces rough red</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Looked like rain Looked like a heart attack Looked like pain Looked like it Look the sun Green May seasons Look an angel Or a demon Look the distance Look home Look the feeling Or a fever Look my son He looks like a sun On my back Felt like it Look like my son He looked like a sun On my back Felt like it On my back Felt like it You might also likeGolden rest Golden heart Gold falling Fall apart Go must shake it off Shake with rage Shake with gold Golden bones Golden rest Golden heart Gold Falling Fall apart Look the sun Green May seasons Look an angel Or a demon Look the distance Look home Look a feeling Or a fever Look my son He looks like a sun On my back Felt like it Look like my son He looked like a sun On my back Felt like it On my back Felt like it On my back Felt like it</t>
+          <t>Looked like rain Looked like a heart attack Looked like pain Looked like it Look the sun Green May seasons Look an angel Or a demon Look the distance Look home Look the feeling Or a fever Look my son He looks like a sun On my back Felt like it Look like my son He looked like a sun On my back Felt like it On my back Felt like it Golden rest Golden heart Gold falling Fall apart Go must shake it off Shake with rage Shake with gold Golden bones Golden rest Golden heart Gold Falling Fall apart Look the sun Green May seasons Look an angel Or a demon Look the distance Look home Look a feeling Or a fever Look my son He looks like a sun On my back Felt like it Look like my son He looked like a sun On my back Felt like it On my back Felt like it On my back Felt like it</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>It's not what you thought When you first began it You got what you want Now you can hardly stand it, though By now you know It's not going to stop It's not going to stop It's not going to stop 'Til you wise up You're sure there's a cure And you have finally found it You think one drink Will shrink you till you're underground And living down But it's not going to stop It's not going to stop It's not going to stop 'Til we wise up You might also like Prepare a list for what you need Before you sign away the deed 'Cause it's not going to stop It's not going to stop It's not going to stop 'Til you wise up No, it's not going to stop Till you wise up No, it's not going to stop Till you wise up No, it's not going to stop 'Til we rise up</t>
+          <t>It's not what you thought When you first began it You got what you want Now you can hardly stand it, though By now you know It's not going to stop It's not going to stop It's not going to stop 'Til you wise up You're sure there's a cure And you have finally found it You think one drink Will shrink you till you're underground And living down But it's not going to stop It's not going to stop It's not going to stop 'Til we wise up Prepare a list for what you need Before you sign away the deed 'Cause it's not going to stop It's not going to stop It's not going to stop 'Til you wise up No, it's not going to stop Till you wise up No, it's not going to stop Till you wise up No, it's not going to stop 'Til we rise up</t>
         </is>
       </c>
     </row>
